--- a/Team-Data/2007-08/3-18-2007-08.xlsx
+++ b/Team-Data/2007-08/3-18-2007-08.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>-2.3</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>19</v>
@@ -774,10 +841,10 @@
         <v>28</v>
       </c>
       <c r="AN2" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO2" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AP2" t="n">
         <v>7</v>
@@ -789,7 +856,7 @@
         <v>5</v>
       </c>
       <c r="AS2" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AT2" t="n">
         <v>10</v>
@@ -810,7 +877,7 @@
         <v>23</v>
       </c>
       <c r="AZ2" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BA2" t="n">
         <v>11</v>
@@ -819,7 +886,7 @@
         <v>20</v>
       </c>
       <c r="BC2" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -848,64 +915,64 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E3" t="n">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F3" t="n">
         <v>13</v>
       </c>
       <c r="G3" t="n">
-        <v>0.806</v>
+        <v>0.803</v>
       </c>
       <c r="H3" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I3" t="n">
         <v>36.3</v>
       </c>
       <c r="J3" t="n">
-        <v>76.3</v>
+        <v>76.09999999999999</v>
       </c>
       <c r="K3" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L3" t="n">
         <v>7.3</v>
       </c>
       <c r="M3" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.383</v>
+        <v>0.384</v>
       </c>
       <c r="O3" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="P3" t="n">
-        <v>26.8</v>
+        <v>26.9</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.768</v>
+        <v>0.767</v>
       </c>
       <c r="R3" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="S3" t="n">
-        <v>31.5</v>
+        <v>31.6</v>
       </c>
       <c r="T3" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U3" t="n">
         <v>22.3</v>
       </c>
       <c r="V3" t="n">
-        <v>15.1</v>
+        <v>15.2</v>
       </c>
       <c r="W3" t="n">
-        <v>8.6</v>
+        <v>8.5</v>
       </c>
       <c r="X3" t="n">
         <v>4.6</v>
@@ -917,16 +984,16 @@
         <v>22.6</v>
       </c>
       <c r="AA3" t="n">
-        <v>22.6</v>
+        <v>22.7</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.5</v>
+        <v>100.6</v>
       </c>
       <c r="AC3" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="AD3" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE3" t="n">
         <v>1</v>
@@ -950,13 +1017,13 @@
         <v>3</v>
       </c>
       <c r="AL3" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AM3" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN3" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AO3" t="n">
         <v>9</v>
@@ -965,7 +1032,7 @@
         <v>8</v>
       </c>
       <c r="AQ3" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR3" t="n">
         <v>24</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1108,7 +1175,7 @@
         <v>-5.2</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE4" t="n">
         <v>23</v>
@@ -1144,7 +1211,7 @@
         <v>21</v>
       </c>
       <c r="AP4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AQ4" t="n">
         <v>30</v>
@@ -1168,7 +1235,7 @@
         <v>13</v>
       </c>
       <c r="AX4" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY4" t="n">
         <v>30</v>
@@ -1183,7 +1250,7 @@
         <v>24</v>
       </c>
       <c r="BC4" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1212,43 +1279,43 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E5" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F5" t="n">
         <v>40</v>
       </c>
       <c r="G5" t="n">
-        <v>0.403</v>
+        <v>0.394</v>
       </c>
       <c r="H5" t="n">
         <v>48.4</v>
       </c>
       <c r="I5" t="n">
-        <v>36.3</v>
+        <v>36.2</v>
       </c>
       <c r="J5" t="n">
-        <v>84.40000000000001</v>
+        <v>84.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.43</v>
+        <v>0.429</v>
       </c>
       <c r="L5" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="M5" t="n">
         <v>15.9</v>
       </c>
       <c r="N5" t="n">
-        <v>0.359</v>
+        <v>0.354</v>
       </c>
       <c r="O5" t="n">
         <v>18.6</v>
       </c>
       <c r="P5" t="n">
-        <v>24.9</v>
+        <v>25</v>
       </c>
       <c r="Q5" t="n">
         <v>0.746</v>
@@ -1257,13 +1324,13 @@
         <v>13.4</v>
       </c>
       <c r="S5" t="n">
-        <v>30.3</v>
+        <v>30.2</v>
       </c>
       <c r="T5" t="n">
-        <v>43.7</v>
+        <v>43.6</v>
       </c>
       <c r="U5" t="n">
-        <v>21.8</v>
+        <v>21.7</v>
       </c>
       <c r="V5" t="n">
         <v>14.5</v>
@@ -1272,25 +1339,25 @@
         <v>7.7</v>
       </c>
       <c r="X5" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="Y5" t="n">
         <v>5.8</v>
       </c>
       <c r="Z5" t="n">
-        <v>21.7</v>
+        <v>21.8</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>96.8</v>
+        <v>96.59999999999999</v>
       </c>
       <c r="AC5" t="n">
-        <v>-2.4</v>
+        <v>-2.7</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE5" t="n">
         <v>21</v>
@@ -1302,10 +1369,10 @@
         <v>21</v>
       </c>
       <c r="AH5" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AJ5" t="n">
         <v>5</v>
@@ -1320,13 +1387,13 @@
         <v>23</v>
       </c>
       <c r="AN5" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AO5" t="n">
         <v>16</v>
       </c>
       <c r="AP5" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AQ5" t="n">
         <v>19</v>
@@ -1344,7 +1411,7 @@
         <v>12</v>
       </c>
       <c r="AV5" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW5" t="n">
         <v>9</v>
@@ -1359,13 +1426,13 @@
         <v>21</v>
       </c>
       <c r="BA5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BC5" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="BD5" t="n">
         <v>10</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1511,7 +1578,7 @@
         <v>14</v>
       </c>
       <c r="AQ6" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AR6" t="n">
         <v>3</v>
@@ -1526,7 +1593,7 @@
         <v>25</v>
       </c>
       <c r="AV6" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AW6" t="n">
         <v>16</v>
@@ -1538,7 +1605,7 @@
         <v>13</v>
       </c>
       <c r="AZ6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BA6" t="n">
         <v>23</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1576,28 +1643,28 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E7" t="n">
         <v>44</v>
       </c>
       <c r="F7" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G7" t="n">
-        <v>0.647</v>
+        <v>0.657</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
       </c>
       <c r="I7" t="n">
-        <v>36.7</v>
+        <v>36.8</v>
       </c>
       <c r="J7" t="n">
-        <v>78.90000000000001</v>
+        <v>79</v>
       </c>
       <c r="K7" t="n">
-        <v>0.465</v>
+        <v>0.466</v>
       </c>
       <c r="L7" t="n">
         <v>6</v>
@@ -1609,16 +1676,16 @@
         <v>0.356</v>
       </c>
       <c r="O7" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="P7" t="n">
-        <v>25.7</v>
+        <v>25.5</v>
       </c>
       <c r="Q7" t="n">
         <v>0.8149999999999999</v>
       </c>
       <c r="R7" t="n">
-        <v>10.8</v>
+        <v>10.9</v>
       </c>
       <c r="S7" t="n">
         <v>32.3</v>
@@ -1630,46 +1697,46 @@
         <v>20.7</v>
       </c>
       <c r="V7" t="n">
-        <v>13.1</v>
+        <v>13</v>
       </c>
       <c r="W7" t="n">
         <v>6.1</v>
       </c>
       <c r="X7" t="n">
-        <v>5</v>
+        <v>4.9</v>
       </c>
       <c r="Y7" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Z7" t="n">
         <v>21.8</v>
       </c>
       <c r="AA7" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="AB7" t="n">
         <v>100.4</v>
       </c>
       <c r="AC7" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="AD7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF7" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AG7" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AH7" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AI7" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AJ7" t="n">
         <v>24</v>
@@ -1684,10 +1751,10 @@
         <v>18</v>
       </c>
       <c r="AN7" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AO7" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AP7" t="n">
         <v>12</v>
@@ -1714,7 +1781,7 @@
         <v>29</v>
       </c>
       <c r="AX7" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AY7" t="n">
         <v>6</v>
@@ -1729,7 +1796,7 @@
         <v>10</v>
       </c>
       <c r="BC7" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BD7" t="n">
         <v>10</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E8" t="n">
         <v>40</v>
       </c>
       <c r="F8" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="G8" t="n">
-        <v>0.597</v>
+        <v>0.606</v>
       </c>
       <c r="H8" t="n">
         <v>48.4</v>
@@ -1776,10 +1843,10 @@
         <v>39.6</v>
       </c>
       <c r="J8" t="n">
-        <v>85.3</v>
+        <v>85.5</v>
       </c>
       <c r="K8" t="n">
-        <v>0.465</v>
+        <v>0.463</v>
       </c>
       <c r="L8" t="n">
         <v>6.7</v>
@@ -1788,7 +1855,7 @@
         <v>19</v>
       </c>
       <c r="N8" t="n">
-        <v>0.353</v>
+        <v>0.35</v>
       </c>
       <c r="O8" t="n">
         <v>23</v>
@@ -1800,25 +1867,25 @@
         <v>0.755</v>
       </c>
       <c r="R8" t="n">
-        <v>11.5</v>
+        <v>11.7</v>
       </c>
       <c r="S8" t="n">
-        <v>32.7</v>
+        <v>33</v>
       </c>
       <c r="T8" t="n">
-        <v>44.3</v>
+        <v>44.6</v>
       </c>
       <c r="U8" t="n">
-        <v>24.3</v>
+        <v>24.2</v>
       </c>
       <c r="V8" t="n">
         <v>15.1</v>
       </c>
       <c r="W8" t="n">
-        <v>9.199999999999999</v>
+        <v>9.1</v>
       </c>
       <c r="X8" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="Y8" t="n">
         <v>5</v>
@@ -1830,13 +1897,13 @@
         <v>23.9</v>
       </c>
       <c r="AB8" t="n">
-        <v>109</v>
+        <v>108.9</v>
       </c>
       <c r="AC8" t="n">
-        <v>3.6</v>
+        <v>3.9</v>
       </c>
       <c r="AD8" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE8" t="n">
         <v>12</v>
@@ -1848,13 +1915,13 @@
         <v>12</v>
       </c>
       <c r="AH8" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI8" t="n">
         <v>4</v>
       </c>
       <c r="AJ8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK8" t="n">
         <v>8</v>
@@ -1863,10 +1930,10 @@
         <v>13</v>
       </c>
       <c r="AM8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AO8" t="n">
         <v>1</v>
@@ -1890,19 +1957,19 @@
         <v>3</v>
       </c>
       <c r="AV8" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AW8" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX8" t="n">
         <v>1</v>
       </c>
       <c r="AY8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AZ8" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BA8" t="n">
         <v>1</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -1940,85 +2007,85 @@
         </is>
       </c>
       <c r="D9" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E9" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F9" t="n">
         <v>18</v>
       </c>
       <c r="G9" t="n">
-        <v>0.731</v>
+        <v>0.727</v>
       </c>
       <c r="H9" t="n">
         <v>48.1</v>
       </c>
       <c r="I9" t="n">
-        <v>36.8</v>
+        <v>36.5</v>
       </c>
       <c r="J9" t="n">
-        <v>79.90000000000001</v>
+        <v>79.7</v>
       </c>
       <c r="K9" t="n">
-        <v>0.461</v>
+        <v>0.458</v>
       </c>
       <c r="L9" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="M9" t="n">
         <v>16.2</v>
       </c>
       <c r="N9" t="n">
-        <v>0.378</v>
+        <v>0.373</v>
       </c>
       <c r="O9" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="P9" t="n">
-        <v>24.7</v>
+        <v>24.8</v>
       </c>
       <c r="Q9" t="n">
         <v>0.762</v>
       </c>
       <c r="R9" t="n">
-        <v>11.8</v>
+        <v>11.7</v>
       </c>
       <c r="S9" t="n">
         <v>29.3</v>
       </c>
       <c r="T9" t="n">
-        <v>41</v>
+        <v>41.1</v>
       </c>
       <c r="U9" t="n">
-        <v>22.9</v>
+        <v>22.6</v>
       </c>
       <c r="V9" t="n">
-        <v>11.6</v>
+        <v>11.5</v>
       </c>
       <c r="W9" t="n">
         <v>7.2</v>
       </c>
       <c r="X9" t="n">
-        <v>5.4</v>
+        <v>5.5</v>
       </c>
       <c r="Y9" t="n">
         <v>3.8</v>
       </c>
       <c r="Z9" t="n">
-        <v>20.9</v>
+        <v>20.8</v>
       </c>
       <c r="AA9" t="n">
         <v>20.3</v>
       </c>
       <c r="AB9" t="n">
-        <v>98.59999999999999</v>
+        <v>98</v>
       </c>
       <c r="AC9" t="n">
-        <v>7.8</v>
+        <v>7.7</v>
       </c>
       <c r="AD9" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE9" t="n">
         <v>2</v>
@@ -2030,16 +2097,16 @@
         <v>2</v>
       </c>
       <c r="AH9" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="n">
-        <v>13</v>
+        <v>17</v>
       </c>
       <c r="AJ9" t="n">
         <v>21</v>
       </c>
       <c r="AK9" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL9" t="n">
         <v>18</v>
@@ -2048,7 +2115,7 @@
         <v>22</v>
       </c>
       <c r="AN9" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AO9" t="n">
         <v>13</v>
@@ -2063,13 +2130,13 @@
         <v>13</v>
       </c>
       <c r="AS9" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AT9" t="n">
         <v>22</v>
       </c>
       <c r="AU9" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV9" t="n">
         <v>1</v>
@@ -2084,13 +2151,13 @@
         <v>3</v>
       </c>
       <c r="AZ9" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BA9" t="n">
         <v>24</v>
       </c>
       <c r="BB9" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BC9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2122,61 +2189,61 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E10" t="n">
         <v>41</v>
       </c>
       <c r="F10" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G10" t="n">
-        <v>0.621</v>
+        <v>0.631</v>
       </c>
       <c r="H10" t="n">
         <v>48.2</v>
       </c>
       <c r="I10" t="n">
-        <v>41.3</v>
+        <v>41.4</v>
       </c>
       <c r="J10" t="n">
-        <v>89.5</v>
+        <v>89.40000000000001</v>
       </c>
       <c r="K10" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L10" t="n">
-        <v>9.4</v>
+        <v>9.5</v>
       </c>
       <c r="M10" t="n">
         <v>27</v>
       </c>
       <c r="N10" t="n">
-        <v>0.349</v>
+        <v>0.352</v>
       </c>
       <c r="O10" t="n">
-        <v>18.8</v>
+        <v>18.7</v>
       </c>
       <c r="P10" t="n">
-        <v>25.1</v>
+        <v>24.9</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.747</v>
+        <v>0.749</v>
       </c>
       <c r="R10" t="n">
-        <v>12.3</v>
+        <v>12.2</v>
       </c>
       <c r="S10" t="n">
-        <v>30.1</v>
+        <v>30.2</v>
       </c>
       <c r="T10" t="n">
         <v>42.4</v>
       </c>
       <c r="U10" t="n">
-        <v>22.8</v>
+        <v>23</v>
       </c>
       <c r="V10" t="n">
-        <v>13.2</v>
+        <v>13.3</v>
       </c>
       <c r="W10" t="n">
         <v>9.1</v>
@@ -2188,25 +2255,25 @@
         <v>5.1</v>
       </c>
       <c r="Z10" t="n">
-        <v>23.3</v>
+        <v>23.2</v>
       </c>
       <c r="AA10" t="n">
         <v>21.6</v>
       </c>
       <c r="AB10" t="n">
-        <v>110.9</v>
+        <v>111</v>
       </c>
       <c r="AC10" t="n">
-        <v>2.8</v>
+        <v>3.1</v>
       </c>
       <c r="AD10" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE10" t="n">
         <v>11</v>
       </c>
       <c r="AF10" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AG10" t="n">
         <v>11</v>
@@ -2230,13 +2297,13 @@
         <v>1</v>
       </c>
       <c r="AN10" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO10" t="n">
         <v>15</v>
       </c>
       <c r="AP10" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AQ10" t="n">
         <v>18</v>
@@ -2248,16 +2315,16 @@
         <v>18</v>
       </c>
       <c r="AT10" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV10" t="n">
         <v>7</v>
       </c>
       <c r="AW10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AX10" t="n">
         <v>19</v>
@@ -2269,7 +2336,7 @@
         <v>27</v>
       </c>
       <c r="BA10" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB10" t="n">
         <v>1</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2304,37 +2371,37 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E11" t="n">
         <v>46</v>
       </c>
       <c r="F11" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G11" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.697</v>
       </c>
       <c r="H11" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I11" t="n">
-        <v>36.8</v>
+        <v>36.9</v>
       </c>
       <c r="J11" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K11" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L11" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="M11" t="n">
-        <v>21</v>
+        <v>21.1</v>
       </c>
       <c r="N11" t="n">
-        <v>0.344</v>
+        <v>0.345</v>
       </c>
       <c r="O11" t="n">
         <v>16</v>
@@ -2343,19 +2410,19 @@
         <v>22.2</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.72</v>
+        <v>0.721</v>
       </c>
       <c r="R11" t="n">
         <v>12.1</v>
       </c>
       <c r="S11" t="n">
-        <v>32.5</v>
+        <v>32.7</v>
       </c>
       <c r="T11" t="n">
-        <v>44.6</v>
+        <v>44.8</v>
       </c>
       <c r="U11" t="n">
-        <v>21.9</v>
+        <v>22</v>
       </c>
       <c r="V11" t="n">
         <v>14.2</v>
@@ -2376,13 +2443,13 @@
         <v>19.7</v>
       </c>
       <c r="AB11" t="n">
-        <v>96.8</v>
+        <v>97.09999999999999</v>
       </c>
       <c r="AC11" t="n">
-        <v>5.1</v>
+        <v>5.5</v>
       </c>
       <c r="AD11" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE11" t="n">
         <v>3</v>
@@ -2397,10 +2464,10 @@
         <v>23</v>
       </c>
       <c r="AI11" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AJ11" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK11" t="n">
         <v>16</v>
@@ -2427,7 +2494,7 @@
         <v>9</v>
       </c>
       <c r="AS11" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AT11" t="n">
         <v>2</v>
@@ -2436,7 +2503,7 @@
         <v>11</v>
       </c>
       <c r="AV11" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AW11" t="n">
         <v>15</v>
@@ -2448,16 +2515,16 @@
         <v>11</v>
       </c>
       <c r="AZ11" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA11" t="n">
         <v>27</v>
       </c>
       <c r="BB11" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BC11" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="BD11" t="n">
         <v>10</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2564,10 +2631,10 @@
         <v>-2.6</v>
       </c>
       <c r="AD12" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF12" t="n">
         <v>22</v>
@@ -2576,7 +2643,7 @@
         <v>22</v>
       </c>
       <c r="AH12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI12" t="n">
         <v>9</v>
@@ -2603,7 +2670,7 @@
         <v>20</v>
       </c>
       <c r="AQ12" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2624,7 +2691,7 @@
         <v>10</v>
       </c>
       <c r="AX12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AY12" t="n">
         <v>22</v>
@@ -2639,7 +2706,7 @@
         <v>7</v>
       </c>
       <c r="BC12" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-6.3</v>
       </c>
       <c r="AD13" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE13" t="n">
         <v>25</v>
@@ -2758,7 +2825,7 @@
         <v>25</v>
       </c>
       <c r="AH13" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI13" t="n">
         <v>29</v>
@@ -2809,7 +2876,7 @@
         <v>15</v>
       </c>
       <c r="AY13" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ13" t="n">
         <v>18</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -2850,34 +2917,34 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E14" t="n">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F14" t="n">
         <v>21</v>
       </c>
       <c r="G14" t="n">
-        <v>0.6870000000000001</v>
+        <v>0.6820000000000001</v>
       </c>
       <c r="H14" t="n">
-        <v>48.1</v>
+        <v>48.2</v>
       </c>
       <c r="I14" t="n">
         <v>39.4</v>
       </c>
       <c r="J14" t="n">
-        <v>82.8</v>
+        <v>82.7</v>
       </c>
       <c r="K14" t="n">
-        <v>0.476</v>
+        <v>0.477</v>
       </c>
       <c r="L14" t="n">
         <v>7.6</v>
       </c>
       <c r="M14" t="n">
-        <v>20.3</v>
+        <v>20.4</v>
       </c>
       <c r="N14" t="n">
         <v>0.373</v>
@@ -2895,7 +2962,7 @@
         <v>10.8</v>
       </c>
       <c r="S14" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T14" t="n">
         <v>44.1</v>
@@ -2913,7 +2980,7 @@
         <v>5.3</v>
       </c>
       <c r="Y14" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z14" t="n">
         <v>20.7</v>
@@ -2925,19 +2992,19 @@
         <v>107.9</v>
       </c>
       <c r="AC14" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AF14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH14" t="n">
         <v>23</v>
@@ -2946,7 +3013,7 @@
         <v>5</v>
       </c>
       <c r="AJ14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AK14" t="n">
         <v>4</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -3110,7 +3177,7 @@
         <v>-6.5</v>
       </c>
       <c r="AD15" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3128,7 +3195,7 @@
         <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK15" t="n">
         <v>18</v>
@@ -3140,13 +3207,13 @@
         <v>5</v>
       </c>
       <c r="AN15" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO15" t="n">
         <v>19</v>
       </c>
       <c r="AP15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AQ15" t="n">
         <v>21</v>
@@ -3176,7 +3243,7 @@
         <v>16</v>
       </c>
       <c r="AZ15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA15" t="n">
         <v>7</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -3214,22 +3281,22 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="E16" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F16" t="n">
         <v>54</v>
       </c>
       <c r="G16" t="n">
-        <v>0.182</v>
+        <v>0.169</v>
       </c>
       <c r="H16" t="n">
         <v>48.4</v>
       </c>
       <c r="I16" t="n">
-        <v>35.5</v>
+        <v>35.4</v>
       </c>
       <c r="J16" t="n">
         <v>78</v>
@@ -3238,34 +3305,34 @@
         <v>0.455</v>
       </c>
       <c r="L16" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="M16" t="n">
-        <v>15.1</v>
+        <v>14.9</v>
       </c>
       <c r="N16" t="n">
-        <v>0.353</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
         <v>17.3</v>
       </c>
       <c r="P16" t="n">
-        <v>24.1</v>
+        <v>24</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.719</v>
+        <v>0.72</v>
       </c>
       <c r="R16" t="n">
         <v>9.199999999999999</v>
       </c>
       <c r="S16" t="n">
-        <v>28.9</v>
+        <v>28.8</v>
       </c>
       <c r="T16" t="n">
-        <v>38.1</v>
+        <v>38</v>
       </c>
       <c r="U16" t="n">
-        <v>20.4</v>
+        <v>20.2</v>
       </c>
       <c r="V16" t="n">
         <v>14.9</v>
@@ -3280,19 +3347,19 @@
         <v>3.9</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.6</v>
+        <v>20.4</v>
       </c>
       <c r="AA16" t="n">
         <v>20.7</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.40000000000001</v>
       </c>
       <c r="AC16" t="n">
-        <v>-7.7</v>
+        <v>-7.9</v>
       </c>
       <c r="AD16" t="n">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="AE16" t="n">
         <v>30</v>
@@ -3316,13 +3383,13 @@
         <v>14</v>
       </c>
       <c r="AL16" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM16" t="n">
         <v>25</v>
       </c>
       <c r="AN16" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AO16" t="n">
         <v>25</v>
@@ -3331,7 +3398,7 @@
         <v>21</v>
       </c>
       <c r="AQ16" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AR16" t="n">
         <v>29</v>
@@ -3349,7 +3416,7 @@
         <v>20</v>
       </c>
       <c r="AW16" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AX16" t="n">
         <v>23</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -3396,22 +3463,22 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E17" t="n">
         <v>23</v>
       </c>
       <c r="F17" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="G17" t="n">
-        <v>0.343</v>
+        <v>0.348</v>
       </c>
       <c r="H17" t="n">
         <v>48.3</v>
       </c>
       <c r="I17" t="n">
-        <v>36.4</v>
+        <v>36.5</v>
       </c>
       <c r="J17" t="n">
         <v>81.5</v>
@@ -3420,25 +3487,25 @@
         <v>0.447</v>
       </c>
       <c r="L17" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M17" t="n">
-        <v>16.4</v>
+        <v>16.3</v>
       </c>
       <c r="N17" t="n">
-        <v>0.339</v>
+        <v>0.338</v>
       </c>
       <c r="O17" t="n">
-        <v>17.6</v>
+        <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>24</v>
+        <v>23.7</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.736</v>
+        <v>0.739</v>
       </c>
       <c r="R17" t="n">
-        <v>12.6</v>
+        <v>12.5</v>
       </c>
       <c r="S17" t="n">
         <v>28.4</v>
@@ -3450,7 +3517,7 @@
         <v>21</v>
       </c>
       <c r="V17" t="n">
-        <v>14.4</v>
+        <v>14.5</v>
       </c>
       <c r="W17" t="n">
         <v>6.5</v>
@@ -3465,34 +3532,34 @@
         <v>21.5</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.8</v>
+        <v>20.7</v>
       </c>
       <c r="AB17" t="n">
-        <v>96.09999999999999</v>
+        <v>95.90000000000001</v>
       </c>
       <c r="AC17" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE17" t="n">
         <v>24</v>
       </c>
       <c r="AF17" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AG17" t="n">
         <v>24</v>
       </c>
       <c r="AH17" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AI17" t="n">
         <v>18</v>
       </c>
       <c r="AJ17" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AK17" t="n">
         <v>19</v>
@@ -3507,7 +3574,7 @@
         <v>26</v>
       </c>
       <c r="AO17" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP17" t="n">
         <v>22</v>
@@ -3525,7 +3592,7 @@
         <v>23</v>
       </c>
       <c r="AU17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AV17" t="n">
         <v>14</v>
@@ -3534,16 +3601,16 @@
         <v>23</v>
       </c>
       <c r="AX17" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AZ17" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BA17" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BB17" t="n">
         <v>22</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -3656,7 +3723,7 @@
         <v>-7</v>
       </c>
       <c r="AD18" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE18" t="n">
         <v>27</v>
@@ -3674,13 +3741,13 @@
         <v>12</v>
       </c>
       <c r="AJ18" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AK18" t="n">
         <v>21</v>
       </c>
       <c r="AL18" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM18" t="n">
         <v>24</v>
@@ -3710,7 +3777,7 @@
         <v>26</v>
       </c>
       <c r="AV18" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AW18" t="n">
         <v>11</v>
@@ -3728,7 +3795,7 @@
         <v>30</v>
       </c>
       <c r="BB18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BC18" t="n">
         <v>28</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -3760,16 +3827,16 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G19" t="n">
-        <v>0.418</v>
+        <v>0.424</v>
       </c>
       <c r="H19" t="n">
         <v>48.4</v>
@@ -3790,16 +3857,16 @@
         <v>16.8</v>
       </c>
       <c r="N19" t="n">
-        <v>0.341</v>
+        <v>0.34</v>
       </c>
       <c r="O19" t="n">
         <v>20.1</v>
       </c>
       <c r="P19" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q19" t="n">
-        <v>0.727</v>
+        <v>0.726</v>
       </c>
       <c r="R19" t="n">
         <v>11.5</v>
@@ -3808,10 +3875,10 @@
         <v>30.9</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
-        <v>23.2</v>
+        <v>23.3</v>
       </c>
       <c r="V19" t="n">
         <v>15.2</v>
@@ -3823,34 +3890,34 @@
         <v>4.7</v>
       </c>
       <c r="Y19" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="Z19" t="n">
-        <v>22.9</v>
+        <v>23</v>
       </c>
       <c r="AA19" t="n">
-        <v>22.4</v>
+        <v>22.5</v>
       </c>
       <c r="AB19" t="n">
         <v>94.2</v>
       </c>
       <c r="AC19" t="n">
-        <v>-5.3</v>
+        <v>-5.1</v>
       </c>
       <c r="AD19" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE19" t="n">
         <v>20</v>
       </c>
       <c r="AF19" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AG19" t="n">
         <v>20</v>
       </c>
       <c r="AH19" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI19" t="n">
         <v>30</v>
@@ -3886,16 +3953,16 @@
         <v>13</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AU19" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AV19" t="n">
         <v>26</v>
       </c>
       <c r="AW19" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX19" t="n">
         <v>17</v>
@@ -3910,10 +3977,10 @@
         <v>8</v>
       </c>
       <c r="BB19" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BC19" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="BD19" t="n">
         <v>10</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4020,19 +4087,19 @@
         <v>5.1</v>
       </c>
       <c r="AD20" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF20" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AG20" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AH20" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AI20" t="n">
         <v>6</v>
@@ -4095,7 +4162,7 @@
         <v>12</v>
       </c>
       <c r="BC20" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD20" t="n">
         <v>10</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-6.7</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>26</v>
@@ -4247,7 +4314,7 @@
         <v>8</v>
       </c>
       <c r="AS21" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AT21" t="n">
         <v>16</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4387,13 +4454,13 @@
         <v>1</v>
       </c>
       <c r="AE22" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG22" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH22" t="n">
         <v>18</v>
@@ -4414,10 +4481,10 @@
         <v>2</v>
       </c>
       <c r="AN22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AO22" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AP22" t="n">
         <v>3</v>
@@ -4429,7 +4496,7 @@
         <v>28</v>
       </c>
       <c r="AS22" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AT22" t="n">
         <v>13</v>
@@ -4444,7 +4511,7 @@
         <v>28</v>
       </c>
       <c r="AX22" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AY22" t="n">
         <v>7</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4566,7 +4633,7 @@
         <v>0.8</v>
       </c>
       <c r="AD23" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE23" t="n">
         <v>16</v>
@@ -4578,7 +4645,7 @@
         <v>17</v>
       </c>
       <c r="AH23" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AI23" t="n">
         <v>11</v>
@@ -4587,7 +4654,7 @@
         <v>16</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AL23" t="n">
         <v>30</v>
@@ -4626,7 +4693,7 @@
         <v>5</v>
       </c>
       <c r="AX23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AY23" t="n">
         <v>17</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E24" t="n">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="n">
         <v>22</v>
       </c>
       <c r="G24" t="n">
-        <v>0.672</v>
+        <v>0.667</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4691,37 +4758,37 @@
         <v>83.5</v>
       </c>
       <c r="K24" t="n">
-        <v>0.497</v>
+        <v>0.496</v>
       </c>
       <c r="L24" t="n">
         <v>8.6</v>
       </c>
       <c r="M24" t="n">
-        <v>22.4</v>
+        <v>22.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.387</v>
+        <v>0.386</v>
       </c>
       <c r="O24" t="n">
-        <v>18.4</v>
+        <v>18.5</v>
       </c>
       <c r="P24" t="n">
-        <v>23.5</v>
+        <v>23.6</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.783</v>
+        <v>0.785</v>
       </c>
       <c r="R24" t="n">
         <v>8.699999999999999</v>
       </c>
       <c r="S24" t="n">
-        <v>32.5</v>
+        <v>32.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U24" t="n">
-        <v>26.8</v>
+        <v>26.7</v>
       </c>
       <c r="V24" t="n">
         <v>14.2</v>
@@ -4730,13 +4797,13 @@
         <v>6.7</v>
       </c>
       <c r="X24" t="n">
-        <v>6.7</v>
+        <v>6.8</v>
       </c>
       <c r="Y24" t="n">
         <v>3.7</v>
       </c>
       <c r="Z24" t="n">
-        <v>19.9</v>
+        <v>19.8</v>
       </c>
       <c r="AA24" t="n">
         <v>20.8</v>
@@ -4745,13 +4812,13 @@
         <v>110</v>
       </c>
       <c r="AC24" t="n">
-        <v>5</v>
+        <v>4.8</v>
       </c>
       <c r="AD24" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE24" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -4769,7 +4836,7 @@
         <v>6</v>
       </c>
       <c r="AK24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AL24" t="n">
         <v>4</v>
@@ -4796,13 +4863,13 @@
         <v>6</v>
       </c>
       <c r="AT24" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AU24" t="n">
         <v>1</v>
       </c>
       <c r="AV24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW24" t="n">
         <v>21</v>
@@ -4811,19 +4878,19 @@
         <v>2</v>
       </c>
       <c r="AY24" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AZ24" t="n">
         <v>7</v>
       </c>
       <c r="BA24" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="BB24" t="n">
         <v>2</v>
       </c>
       <c r="BC24" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BD24" t="n">
         <v>10</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -4852,22 +4919,22 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E25" t="n">
         <v>35</v>
       </c>
       <c r="F25" t="n">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="G25" t="n">
-        <v>0.515</v>
+        <v>0.522</v>
       </c>
       <c r="H25" t="n">
         <v>48.7</v>
       </c>
       <c r="I25" t="n">
-        <v>35.8</v>
+        <v>35.7</v>
       </c>
       <c r="J25" t="n">
         <v>79.3</v>
@@ -4879,28 +4946,28 @@
         <v>6.4</v>
       </c>
       <c r="M25" t="n">
-        <v>17.1</v>
+        <v>17.2</v>
       </c>
       <c r="N25" t="n">
-        <v>0.375</v>
+        <v>0.374</v>
       </c>
       <c r="O25" t="n">
-        <v>17.9</v>
+        <v>17.8</v>
       </c>
       <c r="P25" t="n">
         <v>23.3</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R25" t="n">
         <v>10.6</v>
       </c>
       <c r="S25" t="n">
-        <v>29.6</v>
+        <v>29.7</v>
       </c>
       <c r="T25" t="n">
-        <v>40.3</v>
+        <v>40.4</v>
       </c>
       <c r="U25" t="n">
         <v>21</v>
@@ -4924,13 +4991,13 @@
         <v>20.6</v>
       </c>
       <c r="AB25" t="n">
-        <v>95.8</v>
+        <v>95.7</v>
       </c>
       <c r="AC25" t="n">
-        <v>-0.9</v>
+        <v>-0.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AE25" t="n">
         <v>14</v>
@@ -4960,7 +5027,7 @@
         <v>17</v>
       </c>
       <c r="AN25" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AO25" t="n">
         <v>22</v>
@@ -4969,19 +5036,19 @@
         <v>24</v>
       </c>
       <c r="AQ25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AR25" t="n">
         <v>21</v>
       </c>
       <c r="AS25" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AT25" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AU25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AV25" t="n">
         <v>6</v>
@@ -4990,10 +5057,10 @@
         <v>30</v>
       </c>
       <c r="AX25" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AY25" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AZ25" t="n">
         <v>9</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5034,28 +5101,28 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E26" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F26" t="n">
         <v>36</v>
       </c>
       <c r="G26" t="n">
-        <v>0.463</v>
+        <v>0.455</v>
       </c>
       <c r="H26" t="n">
         <v>48.4</v>
       </c>
       <c r="I26" t="n">
-        <v>36.8</v>
+        <v>36.7</v>
       </c>
       <c r="J26" t="n">
         <v>79.90000000000001</v>
       </c>
       <c r="K26" t="n">
-        <v>0.461</v>
+        <v>0.459</v>
       </c>
       <c r="L26" t="n">
         <v>6.2</v>
@@ -5064,13 +5131,13 @@
         <v>16.8</v>
       </c>
       <c r="N26" t="n">
-        <v>0.371</v>
+        <v>0.372</v>
       </c>
       <c r="O26" t="n">
         <v>22</v>
       </c>
       <c r="P26" t="n">
-        <v>27.8</v>
+        <v>27.7</v>
       </c>
       <c r="Q26" t="n">
         <v>0.794</v>
@@ -5079,40 +5146,40 @@
         <v>10.3</v>
       </c>
       <c r="S26" t="n">
-        <v>30.1</v>
+        <v>30</v>
       </c>
       <c r="T26" t="n">
-        <v>40.4</v>
+        <v>40.3</v>
       </c>
       <c r="U26" t="n">
-        <v>19.1</v>
+        <v>19</v>
       </c>
       <c r="V26" t="n">
-        <v>16.1</v>
+        <v>16.2</v>
       </c>
       <c r="W26" t="n">
-        <v>7.8</v>
+        <v>7.9</v>
       </c>
       <c r="X26" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="Y26" t="n">
         <v>5.6</v>
       </c>
       <c r="Z26" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="AA26" t="n">
         <v>23.1</v>
       </c>
       <c r="AB26" t="n">
-        <v>101.9</v>
+        <v>101.6</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.2</v>
+        <v>-2.5</v>
       </c>
       <c r="AD26" t="n">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="AE26" t="n">
         <v>18</v>
@@ -5124,10 +5191,10 @@
         <v>18</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="AJ26" t="n">
         <v>20</v>
@@ -5142,7 +5209,7 @@
         <v>20</v>
       </c>
       <c r="AN26" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AO26" t="n">
         <v>2</v>
@@ -5157,10 +5224,10 @@
         <v>23</v>
       </c>
       <c r="AS26" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AT26" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AU26" t="n">
         <v>29</v>
@@ -5172,7 +5239,7 @@
         <v>8</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AY26" t="n">
         <v>27</v>
@@ -5187,7 +5254,7 @@
         <v>8</v>
       </c>
       <c r="BC26" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="BD26" t="n">
         <v>10</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5294,10 +5361,10 @@
         <v>4.1</v>
       </c>
       <c r="AD27" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE27" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF27" t="n">
         <v>7</v>
@@ -5306,7 +5373,7 @@
         <v>7</v>
       </c>
       <c r="AH27" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AI27" t="n">
         <v>25</v>
@@ -5342,7 +5409,7 @@
         <v>10</v>
       </c>
       <c r="AT27" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AU27" t="n">
         <v>17</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>-8.699999999999999</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
         <v>27</v>
@@ -5488,13 +5555,13 @@
         <v>29</v>
       </c>
       <c r="AH28" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AI28" t="n">
         <v>8</v>
       </c>
       <c r="AJ28" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK28" t="n">
         <v>23</v>
@@ -5509,13 +5576,13 @@
         <v>27</v>
       </c>
       <c r="AO28" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AP28" t="n">
         <v>25</v>
       </c>
       <c r="AQ28" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AR28" t="n">
         <v>11</v>
@@ -5542,7 +5609,7 @@
         <v>26</v>
       </c>
       <c r="AZ28" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BA28" t="n">
         <v>26</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5658,19 +5725,19 @@
         <v>2.6</v>
       </c>
       <c r="AD29" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE29" t="n">
         <v>15</v>
       </c>
       <c r="AF29" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG29" t="n">
         <v>15</v>
       </c>
       <c r="AH29" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AI29" t="n">
         <v>7</v>
@@ -5682,7 +5749,7 @@
         <v>6</v>
       </c>
       <c r="AL29" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AM29" t="n">
         <v>14</v>
@@ -5709,13 +5776,13 @@
         <v>28</v>
       </c>
       <c r="AU29" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AV29" t="n">
         <v>2</v>
       </c>
       <c r="AW29" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
         <v>27</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -5843,13 +5910,13 @@
         <v>1</v>
       </c>
       <c r="AE30" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AF30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG30" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AH30" t="n">
         <v>30</v>
@@ -5861,7 +5928,7 @@
         <v>18</v>
       </c>
       <c r="AK30" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AL30" t="n">
         <v>26</v>
@@ -5870,7 +5937,7 @@
         <v>27</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>3</v>
@@ -5885,7 +5952,7 @@
         <v>16</v>
       </c>
       <c r="AS30" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AT30" t="n">
         <v>25</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-0.2</v>
       </c>
       <c r="AD31" t="n">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="AE31" t="n">
         <v>16</v>
       </c>
       <c r="AF31" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AG31" t="n">
         <v>16</v>
@@ -6037,7 +6104,7 @@
         <v>2</v>
       </c>
       <c r="AI31" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AJ31" t="n">
         <v>11</v>
@@ -6082,7 +6149,7 @@
         <v>7</v>
       </c>
       <c r="AX31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AY31" t="n">
         <v>10</v>
@@ -6094,7 +6161,7 @@
         <v>22</v>
       </c>
       <c r="BB31" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BC31" t="n">
         <v>15</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>3-18-2007-08</t>
+          <t>2008-03-18</t>
         </is>
       </c>
     </row>
